--- a/static/export.xlsx
+++ b/static/export.xlsx
@@ -11,17 +11,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Потребность в материалах на 29.06.2018</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Лампу в потолочном светильнике</t>
+  </si>
+  <si>
+    <t>1 штук</t>
+  </si>
+  <si>
+    <t>Починить выключатель</t>
+  </si>
+  <si>
+    <t>Починить тумбу</t>
+  </si>
+  <si>
+    <t>Офисное кресло</t>
+  </si>
+  <si>
+    <t>Дырокол</t>
+  </si>
+  <si>
+    <t>2 штук</t>
+  </si>
+  <si>
+    <t>Офисный стол</t>
+  </si>
+  <si>
+    <t>Лампа в настенном светильнике</t>
+  </si>
+  <si>
+    <t>Карандаши</t>
+  </si>
+  <si>
+    <t>15 штук</t>
+  </si>
+  <si>
+    <t>Бумага А3</t>
+  </si>
+  <si>
+    <t>2 упаковок</t>
+  </si>
+  <si>
+    <t>Бумага А4</t>
+  </si>
+  <si>
+    <t>10 упаковок</t>
+  </si>
+  <si>
+    <t>Дверной замок</t>
+  </si>
+  <si>
+    <t>Скоросшиватели</t>
+  </si>
+  <si>
+    <t>5 штук</t>
+  </si>
+  <si>
+    <t>Дверная ручка</t>
+  </si>
+  <si>
+    <t>Шариковые ручки</t>
+  </si>
+  <si>
+    <t>30 штук</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -32,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,9 +120,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf applyFont="1" fontId="0"/>
+    <xf applyFont="1" fontId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="1" borderId="1"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -50,12 +149,190 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="40" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>